--- a/docs/Project_management/2_Plan/Financial_Analysis.xlsx
+++ b/docs/Project_management/2_Plan/Financial_Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1215" windowWidth="11340" windowHeight="6540" activeTab="4"/>
+    <workbookView xWindow="420" yWindow="1215" windowWidth="11340" windowHeight="6540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NPV" sheetId="2" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>ROI</t>
-  </si>
-  <si>
     <t>Assume the project is completed in Year 0</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t xml:space="preserve">    3.2 Software development</t>
+  </si>
+  <si>
+    <t>ROI(Return On Investment)</t>
   </si>
 </sst>
 </file>
@@ -772,10 +772,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14059579731608365"/>
-          <c:y val="0.16788172612975083"/>
-          <c:w val="0.61267690792323259"/>
-          <c:h val="0.64002001696453814"/>
+          <c:x val="0.14059579731608368"/>
+          <c:y val="0.1678817261297508"/>
+          <c:w val="0.61267690792323271"/>
+          <c:h val="0.64002001696453836"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -902,23 +902,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="71796224"/>
-        <c:axId val="75038720"/>
+        <c:axId val="81695104"/>
+        <c:axId val="81696640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71796224"/>
+        <c:axId val="81695104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75038720"/>
+        <c:crossAx val="81696640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75038720"/>
+        <c:axId val="81696640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +926,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71796224"/>
+        <c:crossAx val="81695104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -938,8 +938,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.79079324148975061"/>
-          <c:y val="0.45435631660989384"/>
-          <c:w val="0.18293484309936084"/>
+          <c:y val="0.4543563166098939"/>
+          <c:w val="0.18293484309936089"/>
           <c:h val="9.1287168029993787E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -948,7 +948,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1091,47 +1091,6 @@
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2371725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="Line 4"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="352425" y="3648075"/>
-          <a:ext cx="2019300" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1965,7 +1924,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.25">
       <c r="A1" s="90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
@@ -1976,11 +1935,11 @@
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
@@ -1993,25 +1952,25 @@
     </row>
     <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75">
@@ -2062,7 +2021,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="9">
         <f>B7-B8</f>
@@ -2117,8 +2076,8 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2135,7 +2094,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25">
       <c r="A1" s="90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
@@ -2148,11 +2107,11 @@
     </row>
     <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -2200,7 +2159,7 @@
     </row>
     <row r="6" spans="1:10" ht="45.75" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="91" t="s">
         <v>8</v>
@@ -2527,7 +2486,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="20" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="B19" s="23">
         <f>(H14-H10)/H10</f>
@@ -2544,7 +2503,7 @@
     <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="22"/>
       <c r="C20" s="92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="92"/>
       <c r="E20" s="92"/>
@@ -2555,7 +2514,7 @@
     </row>
     <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -2568,7 +2527,7 @@
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -2614,7 +2573,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1">
       <c r="A1" s="90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
@@ -2625,11 +2584,11 @@
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
@@ -2653,10 +2612,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -2791,8 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2807,7 +2766,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
       <c r="A1" s="93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -2829,12 +2788,12 @@
     </row>
     <row r="2" spans="1:18" ht="15.75">
       <c r="A2" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
@@ -2860,13 +2819,13 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="J3" s="50" t="s">
         <v>35</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>36</v>
       </c>
       <c r="K3" s="70"/>
       <c r="L3" s="70"/>
@@ -2874,44 +2833,44 @@
     </row>
     <row r="4" spans="1:18" ht="15">
       <c r="A4" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="52" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>38</v>
       </c>
       <c r="G4" s="53"/>
       <c r="H4" s="69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I4" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="69" t="s">
-        <v>43</v>
-      </c>
       <c r="L4" s="69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:18" ht="14.25">
       <c r="A5" s="54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="55">
         <v>2100</v>
@@ -2943,7 +2902,7 @@
     </row>
     <row r="6" spans="1:18" ht="14.25">
       <c r="A6" s="54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="55">
@@ -2975,7 +2934,7 @@
     </row>
     <row r="7" spans="1:18" ht="14.25">
       <c r="A7" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="55"/>
       <c r="C7" s="55">
@@ -3007,7 +2966,7 @@
     </row>
     <row r="8" spans="1:18" ht="14.25">
       <c r="A8" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="55"/>
       <c r="C8" s="55">
@@ -3039,7 +2998,7 @@
     </row>
     <row r="9" spans="1:18" ht="14.25">
       <c r="A9" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="55"/>
       <c r="C9" s="55">
@@ -3071,7 +3030,7 @@
     </row>
     <row r="10" spans="1:18" ht="14.25">
       <c r="A10" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="55">
@@ -3103,7 +3062,7 @@
     </row>
     <row r="11" spans="1:18" ht="14.25">
       <c r="A11" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="55"/>
       <c r="C11" s="55">
@@ -3137,7 +3096,7 @@
     </row>
     <row r="12" spans="1:18" ht="14.25">
       <c r="A12" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
@@ -3169,7 +3128,7 @@
     </row>
     <row r="13" spans="1:18" ht="14.25">
       <c r="A13" s="54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
@@ -3205,7 +3164,7 @@
     </row>
     <row r="14" spans="1:18" ht="14.25">
       <c r="A14" s="54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
@@ -3239,7 +3198,7 @@
     </row>
     <row r="15" spans="1:18" ht="14.25">
       <c r="A15" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
@@ -3273,7 +3232,7 @@
     </row>
     <row r="16" spans="1:18" ht="14.25">
       <c r="A16" s="54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
@@ -3305,7 +3264,7 @@
     </row>
     <row r="17" spans="1:18" ht="14.25">
       <c r="A17" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
@@ -3339,7 +3298,7 @@
     </row>
     <row r="18" spans="1:18" ht="14.25">
       <c r="A18" s="54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
@@ -3373,7 +3332,7 @@
     </row>
     <row r="19" spans="1:18" ht="14.25">
       <c r="A19" s="54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
@@ -3405,7 +3364,7 @@
     </row>
     <row r="20" spans="1:18" ht="14.25">
       <c r="A20" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
@@ -3440,7 +3399,7 @@
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
       <c r="J21" s="94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K21" s="94"/>
       <c r="L21" s="75">
@@ -3451,7 +3410,7 @@
     </row>
     <row r="22" spans="1:18" ht="14.25">
       <c r="A22" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="64">
         <f>SUM(B5:B20)</f>
@@ -3488,7 +3447,7 @@
     </row>
     <row r="23" spans="1:18" ht="14.25">
       <c r="A23" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="62">
         <f>B22</f>
@@ -3525,7 +3484,7 @@
     </row>
     <row r="24" spans="1:18" ht="14.25">
       <c r="A24" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="62">
         <v>2200</v>
@@ -3552,7 +3511,7 @@
     </row>
     <row r="25" spans="1:18" ht="14.25">
       <c r="A25" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="62">
         <f>B24</f>
@@ -3584,7 +3543,7 @@
     </row>
     <row r="26" spans="1:18" ht="14.25">
       <c r="A26" s="65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="62">
         <v>2100</v>
@@ -3611,7 +3570,7 @@
     </row>
     <row r="27" spans="1:18" ht="14.25">
       <c r="A27" s="67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="68">
         <f>B22</f>
@@ -3643,7 +3602,7 @@
     </row>
     <row r="28" spans="1:18" ht="14.25">
       <c r="A28" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="55">
         <f>L21</f>
@@ -3663,7 +3622,7 @@
     </row>
     <row r="29" spans="1:18" ht="14.25">
       <c r="A29" s="54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="55">
         <f>F23</f>
@@ -3683,7 +3642,7 @@
     </row>
     <row r="30" spans="1:18" ht="14.25">
       <c r="A30" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="76">
         <f>F25</f>
@@ -3703,7 +3662,7 @@
     </row>
     <row r="31" spans="1:18" ht="15">
       <c r="A31" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="58">
         <f>B28-B30</f>
@@ -3723,7 +3682,7 @@
     </row>
     <row r="32" spans="1:18" ht="15">
       <c r="A32" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="58">
         <f>B28-B29</f>
@@ -3743,7 +3702,7 @@
     </row>
     <row r="33" spans="1:18" ht="15">
       <c r="A33" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="59">
         <f>B28/B30</f>
@@ -3763,7 +3722,7 @@
     </row>
     <row r="34" spans="1:18" ht="15">
       <c r="A34" s="53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="59">
         <f>B28/B29</f>
@@ -3783,14 +3742,14 @@
     </row>
     <row r="35" spans="1:18" ht="15">
       <c r="A35" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="58">
         <f>F23/B33</f>
         <v>9200.7061672361233</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" s="54"/>
       <c r="E35" s="54"/>
@@ -3805,14 +3764,14 @@
     </row>
     <row r="36" spans="1:18" ht="15">
       <c r="A36" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="61">
         <f>3.23/B34</f>
         <v>3.2837879469804063</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
@@ -3820,7 +3779,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3838,7 +3797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -3854,7 +3813,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -3864,10 +3823,10 @@
     </row>
     <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -3890,24 +3849,24 @@
     <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="80"/>
       <c r="B4" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="D4" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="E4" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="F4" s="80" t="s">
         <v>86</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -3917,7 +3876,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="82"/>
       <c r="C6" s="82"/>
@@ -3933,7 +3892,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="85">
         <v>646</v>
@@ -3950,7 +3909,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="85">
         <v>2120</v>
@@ -3967,7 +3926,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="85"/>
       <c r="C9" s="80"/>
@@ -3980,7 +3939,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="81"/>
       <c r="C10" s="82"/>
@@ -3996,7 +3955,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="85">
         <v>2000</v>
@@ -4013,7 +3972,7 @@
     </row>
     <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="81"/>
       <c r="C12" s="82"/>
@@ -4029,7 +3988,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="85">
         <v>100</v>
@@ -4046,7 +4005,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="87"/>
       <c r="C14" s="80"/>
@@ -4058,7 +4017,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="81"/>
       <c r="C15" s="82"/>
@@ -4077,7 +4036,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="82"/>
       <c r="C16" s="82"/>
@@ -4093,7 +4052,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75">
       <c r="A17" s="85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="85">
         <v>150</v>
@@ -4110,7 +4069,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="85">
         <v>12</v>
@@ -4127,7 +4086,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75">
       <c r="A19" s="85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="85">
         <v>1500</v>
@@ -4144,7 +4103,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="81"/>
       <c r="C20" s="82"/>
@@ -4163,7 +4122,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75">
       <c r="A21" s="81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="85"/>
       <c r="C21" s="80"/>
